--- a/biology/Botanique/Eleutherococcus_sieboldianus/Eleutherococcus_sieboldianus.xlsx
+++ b/biology/Botanique/Eleutherococcus_sieboldianus/Eleutherococcus_sieboldianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherococcus sieboldianus (synonyme : Acanthopanax sieboldianus) est un buisson d'environ 1 m de haut de la famille des Araliaceae. Il supporte des climats froids (Rusticité USDA zone 5 à 9[2]) et les situations ombragées.
-Originaire de Chine, il appartient à la pharmacopée traditionnelle. Au Japon, il est récolté et cultivé sous le nom de himeukogi (ヒメウコギ)[3].
-La variété 'Variegatus' (à feuilles panachés verte et blanc-jaunâtre) est commercialisée comme plante décorative [4]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherococcus sieboldianus (synonyme : Acanthopanax sieboldianus) est un buisson d'environ 1 m de haut de la famille des Araliaceae. Il supporte des climats froids (Rusticité USDA zone 5 à 9) et les situations ombragées.
+Originaire de Chine, il appartient à la pharmacopée traditionnelle. Au Japon, il est récolté et cultivé sous le nom de himeukogi (ヒメウコギ).
+La variété 'Variegatus' (à feuilles panachés verte et blanc-jaunâtre) est commercialisée comme plante décorative 
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeunes pousses sont consommés comme un "légume de montagne" sansai (山菜 = さんさい）ou légume sauvage comestible.
 </t>
